--- a/docs/ValueSet-VSStatusReason.xlsx
+++ b/docs/ValueSet-VSStatusReason.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.5</t>
+    <t>0.9.6</t>
   </si>
   <si>
     <t>Name</t>
